--- a/data/academia_maestro_dados.xlsx
+++ b/data/academia_maestro_dados.xlsx
@@ -866,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3271,6 +3271,46 @@
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gabriela Pereira</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1995-03-10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>gabriela.p@email.com</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11912345678</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-11-11 11:29:11</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Ativo</t>
         </is>
@@ -3287,7 +3327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J282"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14844,6 +14884,44 @@
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>59</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>250</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Agendada</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14856,7 +14934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20826,6 +20904,36 @@
       </c>
       <c r="H187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>59</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-11-11 11:29:12</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>250</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>282</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
